--- a/Team-Data/2013-14/1-26-2013-14.xlsx
+++ b/Team-Data/2013-14/1-26-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -768,13 +835,13 @@
         <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -801,10 +868,10 @@
         <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
@@ -813,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -848,49 +915,49 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K3" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L3" t="n">
         <v>6.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.326</v>
+        <v>0.328</v>
       </c>
       <c r="O3" t="n">
         <v>16</v>
       </c>
       <c r="P3" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S3" t="n">
         <v>31.3</v>
@@ -899,10 +966,10 @@
         <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W3" t="n">
         <v>7.1</v>
@@ -920,19 +987,19 @@
         <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>27</v>
@@ -941,49 +1008,49 @@
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS3" t="n">
         <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV3" t="n">
         <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
         <v>17</v>
@@ -995,7 +1062,7 @@
         <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.476</v>
+        <v>0.463</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
         <v>7.9</v>
       </c>
       <c r="M4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="O4" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P4" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R4" t="n">
         <v>9.5</v>
@@ -1078,13 +1145,13 @@
         <v>30.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U4" t="n">
         <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
         <v>7.3</v>
@@ -1096,19 +1163,19 @@
         <v>3.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1129,19 +1196,19 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
@@ -1153,7 +1220,7 @@
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
@@ -1174,16 +1241,16 @@
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -1293,13 +1360,13 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG5" t="n">
         <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>14</v>
@@ -1332,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
@@ -1365,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1508,13 +1575,13 @@
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>9</v>
@@ -1523,13 +1590,13 @@
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.364</v>
+        <v>0.372</v>
       </c>
       <c r="H7" t="n">
         <v>48.9</v>
@@ -1603,10 +1670,10 @@
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O7" t="n">
         <v>16.4</v>
@@ -1615,58 +1682,58 @@
         <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R7" t="n">
         <v>12.5</v>
       </c>
       <c r="S7" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T7" t="n">
         <v>44.6</v>
       </c>
       <c r="U7" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V7" t="n">
         <v>14.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
         <v>4.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z7" t="n">
         <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.1</v>
+        <v>-5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
@@ -1684,10 +1751,10 @@
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1705,25 +1772,25 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV7" t="n">
         <v>12</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ7" t="n">
         <v>8</v>
       </c>
       <c r="BA7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -1758,49 +1825,49 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>83.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M8" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O8" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P8" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="Q8" t="n">
         <v>0.795</v>
       </c>
       <c r="R8" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S8" t="n">
         <v>30.2</v>
@@ -1812,31 +1879,31 @@
         <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA8" t="n">
         <v>19.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.9</v>
+        <v>103.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1857,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1881,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT8" t="n">
         <v>29</v>
@@ -1896,19 +1963,19 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>28</v>
       </c>
       <c r="BB8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -1940,94 +2007,94 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.512</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J9" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O9" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="U9" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V9" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>104</v>
+        <v>103.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -2036,22 +2103,22 @@
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>4</v>
@@ -2060,22 +2127,22 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AS9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2087,10 +2154,10 @@
         <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -2122,34 +2189,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>0.386</v>
+        <v>0.395</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J10" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.447</v>
       </c>
       <c r="L10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="N10" t="n">
         <v>0.307</v>
@@ -2161,49 +2228,49 @@
         <v>25.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.664</v>
+        <v>0.667</v>
       </c>
       <c r="R10" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U10" t="n">
         <v>20.3</v>
       </c>
       <c r="V10" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W10" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z10" t="n">
         <v>20.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
@@ -2224,10 +2291,10 @@
         <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2257,7 +2324,7 @@
         <v>22</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>9</v>
@@ -2269,13 +2336,13 @@
         <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
         <v>17</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -2304,34 +2371,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
         <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J11" t="n">
-        <v>84.7</v>
+        <v>84.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L11" t="n">
         <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N11" t="n">
         <v>0.386</v>
@@ -2343,22 +2410,22 @@
         <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S11" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="T11" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V11" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="W11" t="n">
         <v>7.7</v>
@@ -2367,22 +2434,22 @@
         <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z11" t="n">
         <v>22.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB11" t="n">
         <v>104</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2400,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>7</v>
@@ -2415,13 +2482,13 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
         <v>17</v>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2442,19 +2509,19 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>19</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2609,7 +2676,7 @@
         <v>18</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>9</v>
@@ -2630,7 +2697,7 @@
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>20</v>
@@ -2767,10 +2834,10 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>22</v>
@@ -2782,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>4</v>
@@ -2800,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
@@ -2812,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2952,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -2994,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>0.356</v>
+        <v>0.364</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
         <v>9.300000000000001</v>
@@ -3062,58 +3129,58 @@
         <v>24.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O15" t="n">
         <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T15" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U15" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
         <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA15" t="n">
         <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AC15" t="n">
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
@@ -3128,13 +3195,13 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3146,10 +3213,10 @@
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
@@ -3158,10 +3225,10 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
         <v>21</v>
@@ -3170,10 +3237,10 @@
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
@@ -3182,7 +3249,7 @@
         <v>25</v>
       </c>
       <c r="BB15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
@@ -3310,10 +3377,10 @@
         <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,25 +3389,25 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
       </c>
       <c r="AR16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n">
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.727</v>
+        <v>0.721</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J17" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.509</v>
+        <v>0.507</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O17" t="n">
         <v>18</v>
@@ -3435,7 +3502,7 @@
         <v>23.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.757</v>
+        <v>0.753</v>
       </c>
       <c r="R17" t="n">
         <v>7.2</v>
@@ -3447,13 +3514,13 @@
         <v>36.8</v>
       </c>
       <c r="U17" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V17" t="n">
         <v>15.1</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
@@ -3465,28 +3532,28 @@
         <v>20.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG17" t="n">
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>5</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3531,7 +3598,7 @@
         <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
@@ -3543,13 +3610,13 @@
         <v>9</v>
       </c>
       <c r="BA17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3680,10 +3747,10 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM18" t="n">
         <v>17</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>16</v>
       </c>
       <c r="AN18" t="n">
         <v>26</v>
@@ -3698,7 +3765,7 @@
         <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3713,10 +3780,10 @@
         <v>27</v>
       </c>
       <c r="AW18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>4.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3850,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>8</v>
@@ -3859,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM19" t="n">
         <v>12</v>
@@ -3886,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.419</v>
+        <v>0.405</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.456</v>
@@ -3969,28 +4036,28 @@
         <v>6.1</v>
       </c>
       <c r="M20" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N20" t="n">
         <v>0.387</v>
       </c>
       <c r="O20" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P20" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q20" t="n">
         <v>0.768</v>
       </c>
       <c r="R20" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U20" t="n">
         <v>21.7</v>
@@ -4002,25 +4069,25 @@
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y20" t="n">
         <v>6.3</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>6.2</v>
       </c>
       <c r="Z20" t="n">
         <v>22.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB20" t="n">
         <v>100.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4029,7 +4096,7 @@
         <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
@@ -4041,7 +4108,7 @@
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4053,10 +4120,10 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
         <v>9</v>
@@ -4065,10 +4132,10 @@
         <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4077,7 +4144,7 @@
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4086,13 +4153,13 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA20" t="n">
         <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.386</v>
+        <v>0.372</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J21" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L21" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="N21" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O21" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P21" t="n">
         <v>19.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
         <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U21" t="n">
         <v>20.3</v>
@@ -4181,7 +4248,7 @@
         <v>12.7</v>
       </c>
       <c r="W21" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X21" t="n">
         <v>4.6</v>
@@ -4190,40 +4257,40 @@
         <v>3.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA21" t="n">
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.2</v>
+        <v>-3.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF21" t="n">
         <v>21</v>
       </c>
-      <c r="AF21" t="n">
-        <v>20</v>
-      </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4232,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4253,7 +4320,7 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4268,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
         <v>23</v>
@@ -4277,7 +4344,7 @@
         <v>24</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4405,10 +4472,10 @@
         <v>17</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
@@ -4450,7 +4517,7 @@
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="n">
-        <v>0.267</v>
+        <v>0.273</v>
       </c>
       <c r="H23" t="n">
         <v>48.8</v>
       </c>
       <c r="I23" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K23" t="n">
         <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O23" t="n">
         <v>16.5</v>
@@ -4527,46 +4594,46 @@
         <v>21.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.76</v>
+        <v>0.757</v>
       </c>
       <c r="R23" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V23" t="n">
         <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
         <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,7 +4645,7 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
@@ -4590,13 +4657,13 @@
         <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
         <v>19</v>
@@ -4605,37 +4672,37 @@
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,13 +4827,13 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI24" t="n">
         <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4799,7 +4866,7 @@
         <v>7</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.581</v>
+        <v>0.571</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L25" t="n">
         <v>9.4</v>
@@ -4882,37 +4949,37 @@
         <v>25.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O25" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="P25" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R25" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U25" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V25" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
         <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
@@ -4924,13 +4991,13 @@
         <v>20.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4948,10 +5015,10 @@
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4975,10 +5042,10 @@
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>30</v>
@@ -4987,7 +5054,7 @@
         <v>14</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -4996,13 +5063,13 @@
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -5034,64 +5101,64 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>0.733</v>
+        <v>0.75</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="J26" t="n">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.455</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.388</v>
+        <v>0.39</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="T26" t="n">
-        <v>46.7</v>
+        <v>46.5</v>
       </c>
       <c r="U26" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="V26" t="n">
         <v>13.6</v>
       </c>
       <c r="W26" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
@@ -5106,13 +5173,13 @@
         <v>20.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>109</v>
+        <v>109.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5130,10 +5197,10 @@
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5157,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5187,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" t="n">
-        <v>0.349</v>
+        <v>0.357</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J27" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M27" t="n">
         <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O27" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P27" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R27" t="n">
         <v>11.9</v>
@@ -5273,34 +5340,34 @@
         <v>15</v>
       </c>
       <c r="W27" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
         <v>22.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>102.2</v>
+        <v>101.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5309,22 +5376,22 @@
         <v>11</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
@@ -5333,7 +5400,7 @@
         <v>5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5348,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW27" t="n">
         <v>15</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5366,10 +5433,10 @@
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" t="n">
         <v>33</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>0.767</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
@@ -5416,7 +5483,7 @@
         <v>40.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.494</v>
@@ -5425,34 +5492,34 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.406</v>
+        <v>0.409</v>
       </c>
       <c r="O28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P28" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
         <v>9.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5461,7 +5528,7 @@
         <v>4.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
         <v>17.5</v>
@@ -5470,19 +5537,19 @@
         <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
         <v>3</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP28" t="n">
         <v>30</v>
@@ -5521,10 +5588,10 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5539,7 +5606,7 @@
         <v>15</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5679,10 +5746,10 @@
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5700,13 +5767,13 @@
         <v>7</v>
       </c>
       <c r="AR29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS29" t="n">
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU29" t="n">
         <v>21</v>
@@ -5721,10 +5788,10 @@
         <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
         <v>26</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5879,13 +5946,13 @@
         <v>24</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>19</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5894,7 +5961,7 @@
         <v>26</v>
       </c>
       <c r="AV30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>16</v>
@@ -6040,10 +6107,10 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
         <v>16</v>
@@ -6061,7 +6128,7 @@
         <v>23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>16</v>
@@ -6070,22 +6137,22 @@
         <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
       </c>
       <c r="AV31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW31" t="n">
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-26-2013-14</t>
+          <t>2014-01-26</t>
         </is>
       </c>
     </row>
